--- a/biology/Botanique/Dichondra/Dichondra.xlsx
+++ b/biology/Botanique/Dichondra/Dichondra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichondra est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 décembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 décembre 2020) :
 Dichondra argentea Humb. &amp; Bonpl. ex Willd.
 Dichondra brachypoda Woot. &amp; Standl.
 Dichondra brevifolia J. Buch.
@@ -529,7 +543,7 @@
 Dichondra recurvata Tharp &amp; M. C. Johnston
 Dichondra repens J. R. Forster &amp; G. Forster
 Dichondra sericea Sw.
-Selon World Checklist of Selected Plant Families (WCSP)                (3 décembre 2020)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)                (3 décembre 2020) :
 Dichondra argentea Willd. (1806)
 Dichondra brachypoda Wooton &amp; Standl. (1913)
 Dichondra brevifolia Buchanan (1871)
@@ -548,7 +562,7 @@
 variété Dichondra sericea var. holosericea (O'Donnell) Fabris (1965)
 variété Dichondra sericea var. sericea
 variété Dichondra sericea var. tomentosa W.R.Buck ex Tronc. &amp; Bacigalupo (1977 publ. 1978)
-Selon Tropicos                                           (3 décembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 décembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Dichondra argentea Humb. &amp; Bonpl. ex Willd.
 Dichondra brachypoda Wooton &amp; Standl.
 Dichondra brevifolia Buchanan
